--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>华安安康灵活配置混合C</t>
   </si>
   <si>
+    <t>13.92</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
     <t>24.24</t>
   </si>
   <si>
     <t>1.29</t>
+  </si>
+  <si>
+    <t>0.1796</t>
+  </si>
+  <si>
+    <t>0.0473</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002363</t>
-  </si>
-  <si>
-    <t>002364</t>
-  </si>
-  <si>
-    <t>华安安康灵活配置混合A</t>
-  </si>
-  <si>
-    <t>华安安康灵活配置混合C</t>
-  </si>
-  <si>
-    <t>13.92</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>24.24</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>0.1796</t>
-  </si>
-  <si>
-    <t>0.0473</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8954</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.74</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.69</v>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.33</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.74</v>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.69</v>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2407,7 +2408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,17 +2419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2438,14 +2459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.07</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2454,14 +2497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.33</v>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2470,14 +2535,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.74</v>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2486,14 +2573,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.69</v>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2502,13 +2611,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1796</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0473</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -649,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>71.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.62</t>
+          <t>84.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6620</t>
+          <t>3.8320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62.25</t>
+          <t>54.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4776</t>
+          <t>2.6489</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -725,26 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.67</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2307</t>
+          <t>1.7224</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>33.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8371</t>
+          <t>1.7150</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3789</t>
+          <t>0.7529</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +829,302 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>008295</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>朱雀企业优胜股票C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1009</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +1138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +1159,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -933,26 +1199,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.64</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.1771</t>
+          <t>5.9107</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -971,26 +1237,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>64.63</t>
+          <t>51.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8954</t>
+          <t>2.6818</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1009,26 +1275,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.50</t>
+          <t>36.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7862</t>
+          <t>2.3987</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1047,22 +1313,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.79</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.4165</t>
+          <t>2.3073</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1085,26 +1351,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9144</t>
+          <t>0.7913</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1123,26 +1389,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8163</t>
+          <t>0.7105</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1151,36 +1417,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>910005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>东方红启兴三年持有混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3803</t>
+          <t>0.4093</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1189,36 +1455,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007880</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2157</t>
+          <t>0.3514</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1227,36 +1493,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1027</t>
+          <t>0.2722</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1265,36 +1531,150 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>007881</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>朱雀产业智选混合C</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +2238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,7 +2259,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1919,26 +2299,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>80.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9107</t>
+          <t>5.1771</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1957,26 +2337,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.18</t>
+          <t>64.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6818</t>
+          <t>2.8954</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1995,26 +2375,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.18</t>
+          <t>51.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3987</t>
+          <t>2.7862</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2033,22 +2413,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3073</t>
+          <t>2.4165</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2071,26 +2451,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>17.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7913</t>
+          <t>0.9144</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2109,26 +2489,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7105</t>
+          <t>0.8163</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2137,36 +2517,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>910005</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红启兴三年持有混合A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4093</t>
+          <t>0.3803</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2175,36 +2555,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3514</t>
+          <t>0.2157</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2213,36 +2593,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007880</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合A</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2722</t>
+          <t>0.1027</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2251,150 +2631,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1443</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>73.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>690003</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2429,7 +2695,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2469,26 +2735,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.36</t>
+          <t>81.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.66</t>
+          <t>46.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8320</t>
+          <t>3.6620</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2497,36 +2763,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.06</t>
+          <t>62.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6489</t>
+          <t>2.4776</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2545,26 +2811,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>25.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>80.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7224</t>
+          <t>2.2307</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2573,36 +2839,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.76</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7150</t>
+          <t>0.8371</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2611,36 +2877,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.46</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7529</t>
+          <t>0.3789</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2649,302 +2915,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6782</t>
+          <t>0.1009</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>910005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红启兴三年持有混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3585</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2779</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2444</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014571</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2958,128 +2958,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.45</v>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.23</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>12.45</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>16.07</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>12.33</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>15.74</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>9.69</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.36</t>
+          <t>59.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.66</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8320</t>
+          <t>3.2416</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.06</t>
+          <t>34.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6489</t>
+          <t>1.6408</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -725,22 +742,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7224</t>
+          <t>1.4499</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -763,26 +780,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.76</t>
+          <t>27.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7150</t>
+          <t>1.3681</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -791,32 +808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.46</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7529</t>
+          <t>0.5564</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6782</t>
+          <t>0.5444</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>910005</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红启兴三年持有混合A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3585</t>
+          <t>0.2430</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -905,32 +922,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2779</t>
+          <t>0.1693</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -943,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007880</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合A</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.81</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2444</t>
+          <t>0.1026</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -981,150 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1315</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014571</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1199,26 +1102,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>71.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>84.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9107</t>
+          <t>3.8320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1237,22 +1140,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.18</t>
+          <t>54.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6818</t>
+          <t>2.6489</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1265,36 +1168,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.18</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3987</t>
+          <t>1.7224</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1303,36 +1206,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>33.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3073</t>
+          <t>1.7150</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1351,26 +1254,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7913</t>
+          <t>0.7529</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1389,22 +1292,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7105</t>
+          <t>0.6782</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1427,26 +1330,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4093</t>
+          <t>0.3585</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1465,26 +1368,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3514</t>
+          <t>0.2779</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1503,26 +1406,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>83.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2722</t>
+          <t>0.2444</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1541,26 +1444,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1443</t>
+          <t>0.1315</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1579,26 +1482,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>83.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1617,26 +1520,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>73.95</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1645,36 +1548,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>690003</t>
+          <t>014571</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银精选混合</t>
+          <t>东吴安享量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1754,21 +1657,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.2339</t>
+          <t>5.9107</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1777,36 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>51.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4889</t>
+          <t>2.6818</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1825,26 +1728,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.55</t>
+          <t>36.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0128</t>
+          <t>2.3987</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1853,36 +1756,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8349</t>
+          <t>2.3073</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1891,36 +1794,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011956</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华新能源精选混合型证券投资基金A</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.28</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5924</t>
+          <t>0.7913</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1929,36 +1832,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>910005</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方红启兴三年持有混合A</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4697</t>
+          <t>0.7105</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1967,36 +1870,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>910005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>东方红启兴三年持有混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4131</t>
+          <t>0.4093</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2005,32 +1908,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3944</t>
+          <t>0.3514</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2043,36 +1946,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3609</t>
+          <t>0.2722</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2081,36 +1984,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007880</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合A</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2731</t>
+          <t>0.1443</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2119,32 +2022,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.0430</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2157,36 +2060,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011957</t>
+          <t>580007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华新能源精选混合型证券投资基金C</t>
+          <t>东吴安享量化灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>73.95</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2195,36 +2098,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007881</t>
+          <t>690003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合C</t>
+          <t>民生加银精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0248</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2233,6 +2136,556 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2668,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2952,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603098-森特股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>9.35</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>12.45</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>16.07</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>12.33</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>15.74</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>9.69</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀碳中和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1028,556 +1519,6 @@
       </c>
       <c r="H11" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011531</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>朱雀恒心一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8320</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>54.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6489</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010922</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>朱雀匠心一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7224</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>33.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7150</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7529</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6782</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>910005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红启兴三年持有混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3585</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2779</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2444</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014571</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1652,26 +1593,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>71.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>84.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9107</t>
+          <t>3.8320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1690,22 +1631,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.18</t>
+          <t>54.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6818</t>
+          <t>2.6489</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1718,36 +1659,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.18</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3987</t>
+          <t>1.7224</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1756,36 +1697,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>33.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3073</t>
+          <t>1.7150</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1804,26 +1745,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7913</t>
+          <t>0.7529</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1842,22 +1783,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7105</t>
+          <t>0.6782</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1880,26 +1821,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4093</t>
+          <t>0.3585</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1918,26 +1859,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3514</t>
+          <t>0.2779</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1956,26 +1897,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>83.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2722</t>
+          <t>0.2444</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1994,26 +1935,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1443</t>
+          <t>0.1315</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2032,26 +1973,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>83.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2070,26 +2011,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>73.95</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2098,36 +2039,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>690003</t>
+          <t>014571</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银精选混合</t>
+          <t>东吴安享量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2207,21 +2148,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.2339</t>
+          <t>5.9107</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2230,36 +2171,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>51.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4889</t>
+          <t>2.6818</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2278,26 +2219,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.55</t>
+          <t>36.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0128</t>
+          <t>2.3987</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2306,36 +2247,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8349</t>
+          <t>2.3073</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2344,36 +2285,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011956</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华新能源精选混合型证券投资基金A</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.28</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5924</t>
+          <t>0.7913</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2382,36 +2323,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>910005</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方红启兴三年持有混合A</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4697</t>
+          <t>0.7105</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2420,36 +2361,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>910005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>东方红启兴三年持有混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4131</t>
+          <t>0.4093</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2458,32 +2399,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3944</t>
+          <t>0.3514</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2496,36 +2437,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3609</t>
+          <t>0.2722</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2534,36 +2475,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007880</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合A</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2731</t>
+          <t>0.1443</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2572,32 +2513,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.0430</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2610,36 +2551,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011957</t>
+          <t>580007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华新能源精选混合型证券投资基金C</t>
+          <t>东吴安享量化灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>73.95</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2648,36 +2589,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007881</t>
+          <t>690003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合C</t>
+          <t>民生加银精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0248</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2686,6 +2627,556 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3121,7 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3405,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
